--- a/docs/source/_static/Salas.xlsx
+++ b/docs/source/_static/Salas.xlsx
@@ -25,40 +25,40 @@
     <t xml:space="preserve">Sala</t>
   </si>
   <si>
+    <t xml:space="preserve">Alcázar de los Reyes Cristianos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calleja de las Flores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iglesia de Santa Marina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Judería</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medina Azahara</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mezquita-Catedral</t>
   </si>
   <si>
-    <t xml:space="preserve">Medina Azahara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alcázar de los Reyes Cristianos</t>
+    <t xml:space="preserve">Palacio de Viana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plaza de Capuchinos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plaza de la Corredera</t>
   </si>
   <si>
     <t xml:space="preserve">Puente Romano</t>
   </si>
   <si>
-    <t xml:space="preserve">Plaza de la Corredera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Judería</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calleja de las Flores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plaza de Capuchinos</t>
+    <t xml:space="preserve">Puerta de Almodóvar</t>
   </si>
   <si>
     <t xml:space="preserve">Torre de la Calahorra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puerta de Almodóvar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palacio de Viana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iglesia de Santa Marina</t>
   </si>
 </sst>
 </file>
@@ -166,6 +166,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -283,7 +292,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
